--- a/SuppXLS/Scen_CO2_TAX.xlsx
+++ b/SuppXLS/Scen_CO2_TAX.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Training material\DemoS_012\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DemoS_012_testing_GitHub\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{086E86E5-D905-4F4C-9C4C-6B4CF20FF611}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0654F9-88EC-41C3-B2ED-E5E38D82E04B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CO2_Tax" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -96,7 +88,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -214,8 +206,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="1"/>
-    <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="2"/>
+    <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -687,11 +679,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,7 +790,7 @@
         <v>5</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
